--- a/biology/Zoologie/Eunica_eurota/Eunica_eurota.xlsx
+++ b/biology/Zoologie/Eunica_eurota/Eunica_eurota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eunica eurota est une  espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des  Biblidinae et du genre Eunica.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eunica eurota a été décrite par  Pieter Cramer en 1775, sous le nom initial de Papilio eurota.
-Synonymes : Cybdelis eurota, Hewitson, 1852; Evonyme eurota, Brown &amp; Mielke, 1967[1].
-Sous-espèces
- Eunica eurota eurota
- Eunica eurota dolores (Prittwitz, 1871)[1].
-Nom vernaculaire
- Eunica eurota se nomme Eurota Purplewing en anglais[2].
+Synonymes : Cybdelis eurota, Hewitson, 1852; Evonyme eurota, Brown &amp; Mielke, 1967.
 </t>
         </is>
       </c>
@@ -545,14 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eunica eurota est un papillon d'une envergure de 52 mm à 57 mm aux ailes antérieures à apex angulaire et bord externe très légèrement concave et au bord externe des ailes postérieures ondulé[3]. Le dessus est bleu outremer aux ailes antérieures qui sont bordées de noir avec depuis le bord interne une suffusion noire du centre de l'aile et aux ailes postérieures la partie basale et les bords costal et interne sont noirs.
-Le revers est beige doré marbré de marron.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica eurota eurota
+ Eunica eurota dolores (Prittwitz, 1871).</t>
         </is>
       </c>
     </row>
@@ -577,12 +591,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Période de vol</t>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica eurota se nomme Eurota Purplewing en anglais.
+</t>
         </is>
       </c>
     </row>
@@ -607,15 +628,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica eurota est un papillon d'une envergure de 52 mm à 57 mm aux ailes antérieures à apex angulaire et bord externe très légèrement concave et au bord externe des ailes postérieures ondulé. Le dessus est bleu outremer aux ailes antérieures qui sont bordées de noir avec depuis le bord interne une suffusion noire du centre de l'aile et aux ailes postérieures la partie basale et les bords costal et interne sont noirs.
+Le revers est beige doré marbré de marron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eunica_eurota</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_eurota</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Eunica eurota est présent  en Colombie,  en Équateur, au Brésil, au Pérou, au Surinam, en Guyana et en Guyane[1],[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica eurota est présent  en Colombie,  en Équateur, au Brésil, au Pérou, au Surinam, en Guyana et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eunica_eurota</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_eurota</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Eunica eurota, sur Wikimedia CommonsEunica eurota, sur Wikispecies
 </t>
